--- a/201001-geotime-idx.xlsx
+++ b/201001-geotime-idx.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="11715" windowHeight="9570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20100201" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>2002a.frq</t>
   </si>
@@ -56,11 +56,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mkw:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mkw: (Geta2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>query.rb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-n 1000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rerank-geotime.rb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GG1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GF5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -72,7 +100,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -81,6 +109,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -108,7 +143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -116,6 +151,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -128,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,17 +453,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
+    <col min="3" max="3" width="7.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -439,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -453,10 +494,10 @@
         <v>48618</v>
       </c>
       <c r="C4" s="2">
-        <v>1.1052314814814813E-2</v>
+        <v>2.3700347222222223E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>107889565</v>
+        <v>113293799</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -467,10 +508,10 @@
         <v>51671</v>
       </c>
       <c r="C5" s="2">
-        <v>1.109525462962963E-2</v>
+        <v>2.7804398148148151E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>112396416</v>
+        <v>117311736</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -481,10 +522,10 @@
         <v>48769</v>
       </c>
       <c r="C6" s="2">
-        <v>1.0986342592592594E-2</v>
+        <v>2.5566203703703706E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>105638585</v>
+        <v>110438049</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -495,10 +536,10 @@
         <v>52006</v>
       </c>
       <c r="C7" s="2">
-        <v>1.187673611111111E-2</v>
+        <v>2.4138541666666669E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>116290017</v>
+        <v>121215596</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -509,10 +550,10 @@
         <v>46689</v>
       </c>
       <c r="C8" s="2">
-        <v>1.0439236111111111E-2</v>
+        <v>2.0439814814814817E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>100250276</v>
+        <v>104790982</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -523,10 +564,10 @@
         <v>44635</v>
       </c>
       <c r="C9" s="2">
-        <v>9.9133101851851865E-3</v>
+        <v>2.2300462962962966E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>99980258</v>
+        <v>104683112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -537,10 +578,10 @@
         <v>42375</v>
       </c>
       <c r="C10" s="2">
-        <v>9.2640046296296307E-3</v>
+        <v>2.2594560185185186E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>91394292</v>
+        <v>95810531</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -551,15 +592,15 @@
         <v>43178</v>
       </c>
       <c r="C11" s="2">
-        <v>9.7781250000000004E-3</v>
+        <v>1.7899884259259261E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>98603107</v>
+        <v>103039239</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -568,16 +609,62 @@
         <v>377941</v>
       </c>
       <c r="C14" s="2">
-        <v>6.5601851851851856E-2</v>
+        <v>6.3139930555555557E-2</v>
       </c>
       <c r="D14" s="1">
-        <f>271815536+9449160+330287248+195021768</f>
-        <v>806573712</v>
+        <f>275925224+9449160+341507048+203598208</f>
+        <v>830479640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5.5902777777777776E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.5745138888888888E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.6718055555555559E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.6477893518518517E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>